--- a/data/income_statement/3digits/total/103_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/103_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>103-Processing and preserving of fruit and vegetables</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>103-Processing and preserving of fruit and vegetables</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>11590806.68506</v>
@@ -956,37 +862,42 @@
         <v>14083599.50119</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>18635915.11223</v>
+        <v>18635916.04023</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>18993933.5458</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>21344713.83275</v>
+        <v>21733368.13047</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>28201168.10874</v>
+        <v>28214358.85208</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>31347565.26499</v>
+        <v>32955751.63311</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>29738519.46019</v>
+        <v>34858612.80221</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>39874289.11103</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>53222708.30195</v>
+        <v>53228213.13373</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>60441586.92784999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>60619241.28757</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>77447376.61499999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>7299401.542149999</v>
@@ -995,76 +906,86 @@
         <v>9159104.024350001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>12072245.98677</v>
+        <v>12072246.91477</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>12276918.3255</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>14285318.50348</v>
+        <v>14415097.29408</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>18327141.94278</v>
+        <v>18340308.21119</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>20630754.09258</v>
+        <v>21299425.22879</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>20222695.77926</v>
+        <v>22014018.65414</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>24675656.06335</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>33683772.32064</v>
+        <v>33688293.78825</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>35738692.21741001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>35724272.3546</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>44756776.017</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>4153370.53033</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4791611.3204</v>
+        <v>4791611.320400001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6207464.15353</v>
+        <v>6207464.153530001</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>6509065.46385</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>6855332.493029999</v>
+        <v>7112878.76456</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>9605180.91681</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>10436030.04546</v>
+        <v>11370203.50364</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>9230710.587129999</v>
+        <v>12540507.7401</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>14815568.57698</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>19050497.51622</v>
+        <v>19051479.77688</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>23966725.1329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>24154231.99692</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>31939034.564</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>138034.61258</v>
@@ -1079,31 +1000,36 @@
         <v>207949.75645</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>204062.83624</v>
+        <v>205392.07183</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>268845.24915</v>
+        <v>268869.72408</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>280781.12695</v>
+        <v>286122.90068</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>285113.0938</v>
+        <v>304086.40797</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>383064.4706999999</v>
+        <v>383064.4707000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>488438.46509</v>
+        <v>488439.5686</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>736169.57754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>740736.9360499999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>751566.034</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>560186.69486</v>
@@ -1115,34 +1041,39 @@
         <v>741516.06799</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>744340.2661299999</v>
+        <v>744340.26613</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>841973.5334600001</v>
+        <v>845665.1315700001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1129562.32946</v>
+        <v>1129588.30212</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1222700.87756</v>
+        <v>1275565.14009</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1554418.86834</v>
+        <v>1743633.03923</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1582091.6967</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6419564.64551</v>
+        <v>6419564.645509999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2272526.17067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2276742.09388</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2860695.696</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>204107.35436</v>
@@ -1157,55 +1088,60 @@
         <v>297261.48319</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>293587.7732299999</v>
+        <v>297054.18773</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>413581.9275399999</v>
+        <v>413607.9002</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>476958.2876699999</v>
+        <v>516652.26063</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>863061.0328099999</v>
+        <v>927845.94681</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>627045.5438100001</v>
+        <v>627045.5438099999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>5289209.98611</v>
+        <v>5289209.986110001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>863821.4826</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>866963.4376299999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1267720.46</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>320233.4077399999</v>
+        <v>320233.40774</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>379623.3235999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>396049.405</v>
+        <v>396049.4049999999</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>397218.91279</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>475384.83274</v>
+        <v>475610.01635</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>616196.37293</v>
+        <v>616196.3729300001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>645635.23298</v>
+        <v>654253.6468900001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>591998.21639</v>
+        <v>694485.9603</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>803211.48514</v>
@@ -1214,13 +1150,18 @@
         <v>853677.8526100001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1168286.99018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1168838.76508</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1280294.142</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>35845.93276</v>
@@ -1238,13 +1179,13 @@
         <v>73000.92749</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>99784.02899000001</v>
+        <v>99784.02898999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>100107.35691</v>
+        <v>104659.23257</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>99359.61914</v>
+        <v>121301.13212</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>151834.66775</v>
@@ -1253,13 +1194,18 @@
         <v>276676.80679</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>240417.69789</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>240939.89117</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>312681.094</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>11030619.9902</v>
@@ -1268,40 +1214,45 @@
         <v>13422846.35398</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>17894399.04424</v>
+        <v>17894399.97224</v>
       </c>
       <c r="F13" s="47" t="n">
         <v>18249593.27967</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>20502740.29929</v>
+        <v>20887702.9989</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>27071605.77928</v>
+        <v>27084770.54996</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>30124864.38743</v>
+        <v>31680186.49302001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>28184100.59185</v>
+        <v>33114979.76298</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>38292197.41432999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>46803143.65644</v>
+        <v>46808648.48821999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>58169060.75718001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>58342499.19369</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>74586680.919</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>9716751.901880002</v>
+        <v>9716751.90188</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>12063949.24446</v>
@@ -1313,34 +1264,39 @@
         <v>16328131.99754</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>18187864.99708</v>
+        <v>18528142.85268</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>24185960.58178</v>
+        <v>24198399.64337</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>26766089.67423</v>
+        <v>28185509.26931</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>24726179.18923</v>
+        <v>29230704.63025</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>33404353.88392</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>39981621.60369001</v>
+        <v>39986642.88088001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>50190355.67953999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>50353292.08186</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>64473450.097</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>8267298.615050001</v>
+        <v>8267298.61505</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>10322917.10647</v>
@@ -1352,31 +1308,36 @@
         <v>14202927.87255</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>15739251.89761</v>
+        <v>16042868.09313</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>20695427.66932</v>
+        <v>20706753.36968</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>23249776.916</v>
+        <v>24235388.93998</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>20729488.41884</v>
+        <v>24979394.10168</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>28148683.75915</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>33681409.814</v>
+        <v>33685952.41454</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>42432132.11065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>42600780.44650999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>55022627.766</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1383677.92053</v>
@@ -1391,31 +1352,36 @@
         <v>2015677.20193</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2323071.3222</v>
+        <v>2359732.98228</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3355600.78812</v>
+        <v>3356610.43625</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3367833.59406</v>
+        <v>3795072.17714</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3781868.425</v>
+        <v>4034817.09546</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4946105.1969</v>
+        <v>4946105.196900001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>5928703.07185</v>
+        <v>5929164.141899999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>7354195.019149998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7347734.154270001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>8897606.392000001</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>38823.81689</v>
@@ -1430,31 +1396,36 @@
         <v>60128.11637</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>73621.78854999998</v>
+        <v>73621.78855000001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>68146.80553</v>
+        <v>68162.80553</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>72143.09790000001</v>
+        <v>77963.66528</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>127411.66805</v>
+        <v>127576.30522</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>162373.73054</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>223556.23979</v>
+        <v>223573.84639</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>235509.33158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>236258.26292</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>253837.827</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>26951.54941</v>
@@ -1463,22 +1434,22 @@
         <v>27998.02971</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>51739.40523999999</v>
+        <v>51739.40524</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>49398.80669</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>51919.98872000001</v>
+        <v>51919.98872</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>66785.31881</v>
+        <v>66873.03190999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>76336.06627</v>
+        <v>77084.48690999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>87410.67734000001</v>
+        <v>88917.12789</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>147191.19733</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>168519.21816</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>299378.112</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1313868.08832</v>
@@ -1502,37 +1478,42 @@
         <v>1358897.10952</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2004827.61732</v>
+        <v>2004828.54532</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>1921461.28213</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2314875.30221</v>
+        <v>2359560.14622</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2885645.1975</v>
+        <v>2886370.90659</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3358774.7132</v>
+        <v>3494677.22371</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3457921.40262</v>
+        <v>3884275.13273</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>4887843.53041</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6821522.05275</v>
+        <v>6822005.607340001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7978705.07764</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7989207.11183</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>10113230.822</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>947269.42536</v>
@@ -1541,46 +1522,51 @@
         <v>1079878.99299</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1225694.58968</v>
+        <v>1225696.12198</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>1385500.11581</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1517343.26225</v>
+        <v>1533427.72463</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1795009.74793</v>
+        <v>1797779.57798</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1862011.09861</v>
+        <v>1987587.74501</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2059065.70446</v>
+        <v>2274011.55086</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2690936.068160001</v>
+        <v>2690936.06816</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3409776.79334</v>
+        <v>3413973.30351</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4004311.38168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4022608.84665</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4893789.6</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>6521.74627</v>
+        <v>6521.746270000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>6857.852540000001</v>
+        <v>6857.85254</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>7468.72114</v>
+        <v>7468.721140000001</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>13564.91836</v>
@@ -1592,10 +1578,10 @@
         <v>12812.00943</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>14269.85621</v>
+        <v>14958.18861</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>7472.62134</v>
+        <v>15659.85056</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>17836.72524</v>
@@ -1604,52 +1590,62 @@
         <v>32390.67659</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>34543.96285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>35446.10892</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>22132.777</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>603645.1428500001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>702055.4707099999</v>
+        <v>702055.47071</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>794719.3136100001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>875748.5044899998</v>
+        <v>875748.50449</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>951307.1357800001</v>
+        <v>961305.1984400001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1132962.98435</v>
+        <v>1133034.70718</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1175359.03721</v>
+        <v>1253994.24311</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1297823.64157</v>
+        <v>1407780.93912</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1696074.06693</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2094639.60819</v>
+        <v>2094972.28374</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2473505.50291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2479895.67799</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3138272.74</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>337102.53624</v>
@@ -1658,37 +1654,42 @@
         <v>370965.66974</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>423506.5549299999</v>
+        <v>423508.0872299999</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>496186.69296</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>554548.38713</v>
+        <v>560634.78685</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>649234.7541500001</v>
+        <v>651932.8613700001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>672382.2051899999</v>
+        <v>718635.31329</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>753769.44155</v>
+        <v>850570.76118</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>977025.27599</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1282746.50856</v>
+        <v>1286610.34318</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1496261.91592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1507267.05974</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1733384.083</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>366598.66296</v>
@@ -1697,37 +1698,42 @@
         <v>279018.11653</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>779133.02764</v>
+        <v>779132.4233399999</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>535961.16632</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>797532.03996</v>
+        <v>826132.4215899999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1090635.44957</v>
+        <v>1088591.32861</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1496763.61459</v>
+        <v>1507089.4787</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1398855.69816</v>
+        <v>1610263.58187</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2196907.46225</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3411745.25941</v>
+        <v>3408032.30383</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3974393.69596</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3966598.26518</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>5219441.222</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>368056.094</v>
@@ -1736,40 +1742,45 @@
         <v>366691.90845</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>419914.09057</v>
+        <v>419914.0905700001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>445613.6929300001</v>
+        <v>445613.69293</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>468662.79902</v>
+        <v>491746.04513</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>711454.7221400001</v>
+        <v>711465.1346999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1112700.97254</v>
+        <v>1174011.25059</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1054854.98689</v>
+        <v>1194837.08721</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1699276.61762</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4007099.65016</v>
+        <v>4011453.191149999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2642881.50128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2650078.32151</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3981745.58</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>322.17926</v>
+        <v>322.1792599999999</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>2941.06579</v>
@@ -1790,22 +1801,27 @@
         <v>16890.23275</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>107773.4438</v>
+        <v>108365.86501</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>78981.26682999999</v>
+        <v>78981.26683000001</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>90831.23142</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>190822.59901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>190308.23476</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>58587.205</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>900</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>26215.65764</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>2661.338</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>29483.60328</v>
@@ -1859,37 +1880,42 @@
         <v>35406.15439</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>41716.12369000001</v>
+        <v>41741.24001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>43476.61005999999</v>
+        <v>43479.51032</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>57340.81800000001</v>
+        <v>61313.7064</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>62988.58231000001</v>
+        <v>73670.75521</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>125957.86015</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>322003.26454</v>
+        <v>322055.80766</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>350453.61756</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>350487.12229</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>228573.855</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1033.79588</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>867.5051599999999</v>
+        <v>867.50516</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>1551.76734</v>
@@ -1913,19 +1939,24 @@
         <v>10915.71393</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>15435.95316</v>
+        <v>15445.7601</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>19275.275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>19363.26686</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>21716.568</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>8063.354949999999</v>
+        <v>8063.35495</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>5803.18509</v>
@@ -1934,34 +1965,39 @@
         <v>11131.96531</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>3823.312060000001</v>
+        <v>3823.31206</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>6011.11263</v>
+        <v>6062.601470000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>7333.912550000001</v>
+        <v>7333.91255</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>6202.38775</v>
+        <v>6270.5297</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3729.74005</v>
+        <v>3761.19297</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>5514.37909</v>
+        <v>5514.379089999999</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>9259.328670000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>16992.11917</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>17000.496</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>11624.972</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2550.31399</v>
@@ -1982,25 +2018,30 @@
         <v>11874.6969</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>24055.10428</v>
+        <v>24058.98117</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>9653.230629999998</v>
+        <v>9822.14409</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>5148.22003</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>21595.07237</v>
+        <v>21606.5904</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>9962.409000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>9973.19116</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>30712.059</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>267040.55672</v>
@@ -2009,37 +2050,42 @@
         <v>270798.73442</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>302703.45712</v>
+        <v>302703.4571199999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>345119.34494</v>
+        <v>345119.3449399999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>344055.98349</v>
+        <v>366682.08242</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>570317.95985</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>919366.8462200001</v>
+        <v>973317.0188300002</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>777314.02015</v>
+        <v>885999.9222499998</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1343094.38227</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3378293.84564</v>
+        <v>3382001.57673</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1867697.28086</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1872448.60969</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3382791.14</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2378.38977</v>
@@ -2060,7 +2106,7 @@
         <v>667.0023200000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1067.23842</v>
+        <v>1073.38494</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>1268.496</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>3964.29338</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1233.895</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>133.31538</v>
@@ -2087,13 +2138,13 @@
         <v>275.47878</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>77.74021</v>
+        <v>77.74020999999999</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>1104.56107</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>415.63692</v>
+        <v>416.11316</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>42.57487</v>
@@ -2113,50 +2164,60 @@
       <c r="M34" s="48" t="n">
         <v>0.00847</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>56150.58477</v>
+        <v>56150.58476999999</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>60925.39079</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>62852.37184000001</v>
+        <v>62852.37183999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>52523.41158000001</v>
+        <v>52523.41158</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>70345.85932999999</v>
+        <v>70725.92511</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>72297.16915999999</v>
+        <v>72304.68145999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>82043.01732000001</v>
+        <v>85352.069</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>87412.37113</v>
+        <v>107233.60886</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>126506.61131</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>153352.78371</v>
+        <v>153924.72552</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>157498.24119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>160317.44126</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>243829.548</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>258587.32027</v>
@@ -2165,37 +2226,42 @@
         <v>244830.4044</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>367238.26</v>
+        <v>367238.2600000001</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>250171.02894</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>546593.25745</v>
+        <v>567955.226</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>607495.15409</v>
+        <v>607502.2242899999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1113013.77391</v>
+        <v>1193222.32515</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1021539.73512</v>
+        <v>1123990.51472</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1598598.37806</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3733642.9241</v>
+        <v>3734519.35509</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2085909.76048</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2086562.31505</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3713117.641</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>4336.384</v>
@@ -2204,7 +2270,7 @@
         <v>4818.90588</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>5999.859459999999</v>
+        <v>5999.85946</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>7979.57321</v>
@@ -2216,25 +2282,30 @@
         <v>15722.47892</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>22554.12031</v>
+        <v>22607.55075</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4508.79867</v>
+        <v>13022.46065</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>20733.96074999999</v>
+        <v>20733.96075</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>42856.11626</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>23289.14525</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>23564.04049</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>19817.9</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>28554.47293</v>
@@ -2249,16 +2320,16 @@
         <v>17725.14986</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>23045.22899</v>
+        <v>23425.13498</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>26096.21344</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>29661.33372</v>
+        <v>29859.93729</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>50437.51671</v>
+        <v>52372.78353</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>25388.38339</v>
@@ -2267,19 +2338,24 @@
         <v>43747.02878</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>46938.98224000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>46938.98224</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>54469.392</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>4797.476650000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>353.7235899999999</v>
+        <v>353.72359</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>652.12375</v>
@@ -2291,10 +2367,10 @@
         <v>583.1722900000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>268.5524599999999</v>
+        <v>268.55246</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1637.40996</v>
+        <v>1703.56309</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>450.09656</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>275.25586</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1020.965</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>202785.12245</v>
@@ -2327,37 +2408,42 @@
         <v>201355.22697</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>492193.18438</v>
+        <v>509912.0561</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>547941.3893800001</v>
+        <v>547948.4595799999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1039057.94665</v>
+        <v>1115145.88423</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>942973.5483499999</v>
+        <v>1032524.56306</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1517278.42078</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3597786.26337</v>
+        <v>3598599.64889</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1957349.46238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1957559.67226</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3564660.294</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1766.28648</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>907.1411499999999</v>
+        <v>907.1411500000002</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>3954.3193</v>
@@ -2372,7 +2458,7 @@
         <v>1041.5649</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>2157.0475</v>
+        <v>2286.437</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>880.4916599999999</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>2686.34497</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1524.173</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2408,7 +2499,7 @@
         <v>31.46593</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>76.33001000000002</v>
+        <v>76.33001</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>3.33544</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>15.558</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>16347.57776</v>
@@ -2444,31 +2540,36 @@
         <v>19802.81652</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>15759.19325</v>
+        <v>19022.38409</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>16348.62498</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>17942.58033</v>
+        <v>21615.61735</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>22009.00796</v>
+        <v>24459.84405</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>34014.32075</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>45632.71359000001</v>
+        <v>45695.75906</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>55370.56978</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>55538.01923</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>71609.359</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>342566.61272</v>
@@ -2477,37 +2578,42 @@
         <v>274873.75853</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>557840.4280699999</v>
+        <v>557840.42807</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>424435.78334</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>652003.86297</v>
+        <v>658328.7075</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>634733.1031000001</v>
+        <v>634896.0951799999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>922498.5671600001</v>
+        <v>971461.90626</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1021478.84156</v>
+        <v>1068323.62505</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1394377.43089</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2929291.05932</v>
+        <v>2930934.82272</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2818213.06822</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2813459.77097</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3363099.115</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>308561.45586</v>
@@ -2522,31 +2628,36 @@
         <v>402050.1434</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>568216.44966</v>
+        <v>574541.29419</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>539785.6721900001</v>
+        <v>539948.66427</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>769491.89698</v>
+        <v>812881.16403</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>917027.3138100001</v>
+        <v>950519.1987599999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1241380.39709</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2512557.43244</v>
+        <v>2514176.21053</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2507087.50086</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2502329.74753</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3046399.276</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>34005.15686</v>
@@ -2567,25 +2678,30 @@
         <v>94947.43091</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>153006.67018</v>
+        <v>158580.74223</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>104451.52775</v>
+        <v>117804.42629</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>152997.0338</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>416733.6268800001</v>
+        <v>416758.6121900001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>311125.56736</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>311130.02344</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>316699.839</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>133500.82397</v>
@@ -2594,37 +2710,42 @@
         <v>126005.86205</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>273968.43014</v>
+        <v>273967.82584</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>306968.04697</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>67597.71856000001</v>
+        <v>91594.53322</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>559861.91452</v>
+        <v>557658.14384</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>573952.2460599999</v>
+        <v>516416.49788</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>410692.10837</v>
+        <v>612786.5293099999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>903208.27092</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>755910.92615</v>
+        <v>754031.3171700001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1713152.36854</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1716654.50067</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2124970.046</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>73439.59455000001</v>
@@ -2636,34 +2757,39 @@
         <v>112346.38415</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>88440.43493999999</v>
+        <v>88440.43494000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>183006.66963</v>
+        <v>183326.3444</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>290947.9952899999</v>
+        <v>291042.10256</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>290056.67755</v>
+        <v>328054.27971</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>269551.38474</v>
+        <v>311996.7421</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>263666.45029</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>339104.04544</v>
+        <v>342175.9423</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>252106.30178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>252724.98956</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>529909.855</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3122.07299</v>
@@ -2684,10 +2810,10 @@
         <v>30000.59063</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2656.665</v>
+        <v>2735.88801</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3034.60534</v>
+        <v>3567.3357</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1211.2509</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>5003.04659</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>5256.081</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>70317.52156000001</v>
@@ -2717,31 +2848,36 @@
         <v>80495.98706999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>179509.66276</v>
+        <v>179829.33753</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>260947.40466</v>
+        <v>261041.51193</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>287400.01255</v>
+        <v>325318.3917</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>266516.7794</v>
+        <v>308429.4064</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>262455.19939</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>334765.75686</v>
+        <v>337837.6537199999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>247103.25519</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>247721.94297</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>524653.774</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>81789.43699000002</v>
@@ -2756,31 +2892,36 @@
         <v>98951.13372</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>155039.80055</v>
+        <v>160335.0107</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>212689.79725</v>
+        <v>212934.59805</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>240486.54408</v>
+        <v>255596.94546</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>286072.64569</v>
+        <v>300703.50473</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>195794.92184</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>335563.33391</v>
+        <v>336540.78864</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>270596.1132199999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>273200.55689</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>327984.842</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>22737.94687</v>
@@ -2795,70 +2936,80 @@
         <v>24050.0904</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>36926.66351</v>
+        <v>37021.29919</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>32310.84573</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>45898.52128</v>
+        <v>49211.50554999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>46142.13946000001</v>
+        <v>50191.38293</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>53365.21483</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>120733.10431</v>
+        <v>120846.05792</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>128094.78809</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>129287.18785</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>131204.504</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5502.905140000001</v>
+        <v>5502.90514</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>6188.6078</v>
+        <v>6188.607800000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>7069.6472</v>
+        <v>7069.647199999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>5336.99718</v>
+        <v>5336.997179999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>8650.055050000001</v>
+        <v>8666.637839999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>12982.95484</v>
+        <v>13012.6426</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5923.52726</v>
+        <v>6011.81689</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>11196.96408</v>
+        <v>13767.14163</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>9851.516220000001</v>
+        <v>9851.51622</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>17016.52819</v>
+        <v>17017.88478</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>15457.89455</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>15507.11866</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>12094.223</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>53548.58498</v>
@@ -2873,31 +3024,36 @@
         <v>69564.04614000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>109463.08199</v>
+        <v>114647.07367</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>167395.99668</v>
+        <v>167611.10972</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>188664.49554</v>
+        <v>200373.62302</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>228733.54215</v>
+        <v>236744.98017</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>132578.19079</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>197813.70141</v>
+        <v>198676.84594</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>127043.43058</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>128406.25038</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>184686.115</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>125150.98153</v>
@@ -2906,43 +3062,48 @@
         <v>158784.36984</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>180163.67224</v>
+        <v>180163.06794</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>296457.34819</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>95564.58764000001</v>
+        <v>114585.86692</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>638120.1125599999</v>
+        <v>635765.64835</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>623522.3795299999</v>
+        <v>588873.83213</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>394170.84742</v>
+        <v>624079.76668</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>971079.79937</v>
+        <v>971079.7993700001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>759451.63768</v>
+        <v>759666.4708299999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1694662.5571</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1696178.93334</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2326895.059</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>43555.7696</v>
+        <v>43555.76959999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>41231.14365999999</v>
+        <v>41231.14366</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>69077.11188</v>
@@ -2951,67 +3112,75 @@
         <v>67231.77585999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>68289.81948000001</v>
+        <v>73496.54863999999</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>120121.12201</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>139454.81575</v>
+        <v>144879.94343</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>123395.09619</v>
+        <v>165661.04215</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>190995.35362</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>205210.84019</v>
+        <v>205256.80655</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>262372.42283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>264893.25338</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>335764.178</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>81595.21193</v>
+        <v>81595.21192999999</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>117553.22618</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>111086.56036</v>
+        <v>111085.95606</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>229225.57233</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>27274.76816</v>
+        <v>41089.31828</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>517998.99055</v>
+        <v>515644.52634</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>484067.56378</v>
+        <v>443993.8887000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>270775.75123</v>
+        <v>458418.72453</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>780084.44575</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>554240.79749</v>
+        <v>554409.66428</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1432290.13427</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1431285.67996</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1991130.881</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1029</v>
@@ -3038,34 +3210,37 @@
         <v>1075</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F59" s="35" t="n">
         <v>1185</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1364</v>
+        <v>1387</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1424</v>
+        <v>1462</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1525</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1440</v>
+        <v>1591</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1734</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>